--- a/templates/test-template.xlsx
+++ b/templates/test-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Koulu\Inssityö\Sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24AC770-6AE0-4F11-BA2B-6443953F04E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA3634A-AD07-4E8C-B7F6-2FB77BFE1EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="2085" windowWidth="19005" windowHeight="13260" xr2:uid="{C4A58839-FC71-4B02-A9E3-FC4FA5EF10F3}"/>
+    <workbookView xWindow="10335" yWindow="2145" windowWidth="18015" windowHeight="11175" xr2:uid="{C4A58839-FC71-4B02-A9E3-FC4FA5EF10F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Example Test-1" sheetId="1" r:id="rId1"/>
@@ -820,7 +820,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,6 +913,12 @@
       <c r="F6" s="1">
         <v>120</v>
       </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="2" t="s">
         <v>21</v>
       </c>
@@ -926,6 +932,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="2" t="s">
         <v>22</v>
       </c>
@@ -939,6 +951,12 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="3" t="s">
         <v>23</v>
       </c>
@@ -962,6 +980,12 @@
       <c r="F9" s="5">
         <v>2.5</v>
       </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="3" t="s">
         <v>24</v>
       </c>
@@ -985,6 +1009,12 @@
       <c r="F10" s="1">
         <v>140</v>
       </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1008,6 +1038,12 @@
       <c r="F11" s="1">
         <v>99</v>
       </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1021,6 +1057,12 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1034,6 +1076,12 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1057,6 +1105,12 @@
       <c r="F14" s="1">
         <v>25</v>
       </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1065,6 +1119,17 @@
       <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1073,6 +1138,17 @@
       <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1081,6 +1157,17 @@
       <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1089,6 +1176,17 @@
       <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1097,6 +1195,17 @@
       <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
@@ -1105,6 +1214,17 @@
       <c r="A20" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="3" t="s">
         <v>31</v>
       </c>
@@ -1113,6 +1233,17 @@
       <c r="A21" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="3" t="s">
         <v>32</v>
       </c>
@@ -1121,6 +1252,17 @@
       <c r="A22" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
@@ -1186,7 +1328,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,6 +1424,13 @@
       <c r="G6" s="1">
         <v>150</v>
       </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
+        <v>160</v>
+      </c>
       <c r="M6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1296,6 +1445,11 @@
       <c r="E7" s="1"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1310,6 +1464,11 @@
       <c r="E8" s="1"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1336,6 +1495,13 @@
       <c r="G9" s="5">
         <v>3</v>
       </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
+        <v>3.2</v>
+      </c>
       <c r="M9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1362,6 +1528,13 @@
       <c r="G10" s="1">
         <v>140</v>
       </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
+        <v>140</v>
+      </c>
       <c r="M10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1387,6 +1560,13 @@
       </c>
       <c r="G11" s="1">
         <v>99</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
+        <v>95</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>26</v>
@@ -1402,6 +1582,11 @@
       <c r="E12" s="1"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1416,6 +1601,11 @@
       <c r="E13" s="1"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1442,6 +1632,13 @@
       <c r="G14" s="1">
         <v>30</v>
       </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>40</v>
+      </c>
       <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1450,6 +1647,17 @@
       <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1458,6 +1666,17 @@
       <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1466,6 +1685,17 @@
       <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1474,6 +1704,17 @@
       <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1482,6 +1723,17 @@
       <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
@@ -1490,6 +1742,17 @@
       <c r="A20" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="3" t="s">
         <v>31</v>
       </c>
@@ -1498,6 +1761,31 @@
       <c r="A21" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="B21" s="5">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5">
+        <v>37.1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E21" s="5">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F21" s="5">
+        <v>37.4</v>
+      </c>
+      <c r="G21" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
+        <v>38</v>
+      </c>
       <c r="M21" s="3" t="s">
         <v>32</v>
       </c>
@@ -1506,6 +1794,17 @@
       <c r="A22" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
